--- a/data/pca/factorExposure/factorExposure_2014-08-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.003818270663285732</v>
+        <v>0.01889651501828755</v>
       </c>
       <c r="C2">
-        <v>-0.1148463712429536</v>
+        <v>-0.06992381330981946</v>
       </c>
       <c r="D2">
-        <v>-0.03259481293931353</v>
+        <v>0.03272999100253846</v>
       </c>
       <c r="E2">
-        <v>0.2276756528448768</v>
+        <v>0.03332875020147354</v>
       </c>
       <c r="F2">
-        <v>-0.03918757575283856</v>
+        <v>-0.1553839438460009</v>
       </c>
       <c r="G2">
-        <v>-0.04751922073150164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.003932658376073935</v>
+      </c>
+      <c r="H2">
+        <v>0.05618486590568701</v>
+      </c>
+      <c r="I2">
+        <v>-0.03329055700782332</v>
+      </c>
+      <c r="J2">
+        <v>-0.02830710171477808</v>
+      </c>
+      <c r="K2">
+        <v>-0.1462228604965192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01467991461221258</v>
+        <v>0.01853502108471575</v>
       </c>
       <c r="C4">
-        <v>-0.1641562441528187</v>
+        <v>-0.1452822869294497</v>
       </c>
       <c r="D4">
-        <v>-0.03686037206393132</v>
+        <v>0.06554830150803129</v>
       </c>
       <c r="E4">
-        <v>0.04735009180785217</v>
+        <v>-0.04003215840664405</v>
       </c>
       <c r="F4">
-        <v>0.06439373854443277</v>
+        <v>-0.05679591950715358</v>
       </c>
       <c r="G4">
-        <v>0.02629291770895138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03408075234078656</v>
+      </c>
+      <c r="H4">
+        <v>0.05667809984348282</v>
+      </c>
+      <c r="I4">
+        <v>-0.08717458505529305</v>
+      </c>
+      <c r="J4">
+        <v>-0.009061622278466179</v>
+      </c>
+      <c r="K4">
+        <v>-0.1732556353437255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.019830385151439</v>
+        <v>0.03776761145267531</v>
       </c>
       <c r="C6">
-        <v>-0.07908735409697037</v>
+        <v>-0.08581335725170006</v>
       </c>
       <c r="D6">
-        <v>-0.05613015273830983</v>
+        <v>0.02653382898491254</v>
       </c>
       <c r="E6">
-        <v>0.05539048232256694</v>
+        <v>0.03442797307818644</v>
       </c>
       <c r="F6">
-        <v>0.007353499041721155</v>
+        <v>-0.0357665893698275</v>
       </c>
       <c r="G6">
-        <v>0.04750898611884335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04598678757431736</v>
+      </c>
+      <c r="H6">
+        <v>0.03899600995008296</v>
+      </c>
+      <c r="I6">
+        <v>0.01974704054785582</v>
+      </c>
+      <c r="J6">
+        <v>0.08071137819086457</v>
+      </c>
+      <c r="K6">
+        <v>-0.0792985845252378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0007619007253059567</v>
+        <v>0.01815204690805478</v>
       </c>
       <c r="C7">
-        <v>-0.06157986591372483</v>
+        <v>-0.06970453202680915</v>
       </c>
       <c r="D7">
-        <v>-0.03608089628961882</v>
+        <v>0.03058727486290315</v>
       </c>
       <c r="E7">
-        <v>0.01305982534151105</v>
+        <v>-0.01872090137443398</v>
       </c>
       <c r="F7">
-        <v>0.0270107646744204</v>
+        <v>0.002577879914360791</v>
       </c>
       <c r="G7">
-        <v>0.02795773931849452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03614963002758077</v>
+      </c>
+      <c r="H7">
+        <v>0.07829780527661837</v>
+      </c>
+      <c r="I7">
+        <v>-0.05488209699751136</v>
+      </c>
+      <c r="J7">
+        <v>0.002413243387298972</v>
+      </c>
+      <c r="K7">
+        <v>-0.02438385791848908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01305905719608368</v>
+        <v>0.00134336257971175</v>
       </c>
       <c r="C8">
-        <v>-0.06869210949871654</v>
+        <v>-0.06019161894785439</v>
       </c>
       <c r="D8">
-        <v>-0.04514135599717745</v>
+        <v>0.04675866788286994</v>
       </c>
       <c r="E8">
-        <v>0.06027780725815488</v>
+        <v>-0.002811455089981309</v>
       </c>
       <c r="F8">
-        <v>0.01519948346535402</v>
+        <v>-0.06118167084193848</v>
       </c>
       <c r="G8">
-        <v>-0.02068965057919329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01973621092244906</v>
+      </c>
+      <c r="H8">
+        <v>0.04981806442927333</v>
+      </c>
+      <c r="I8">
+        <v>-0.03426708236915824</v>
+      </c>
+      <c r="J8">
+        <v>0.01174983862019813</v>
+      </c>
+      <c r="K8">
+        <v>0.008326716303662211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.007163748388198294</v>
+        <v>0.01366041529650455</v>
       </c>
       <c r="C9">
-        <v>-0.1157875511163493</v>
+        <v>-0.102882066810377</v>
       </c>
       <c r="D9">
-        <v>-0.04797954811361744</v>
+        <v>0.04097871852870644</v>
       </c>
       <c r="E9">
-        <v>0.01129253614768948</v>
+        <v>-0.01222211331471405</v>
       </c>
       <c r="F9">
-        <v>0.006641604861753547</v>
+        <v>-0.03281940724476801</v>
       </c>
       <c r="G9">
-        <v>0.0337210224441644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.01927822346730841</v>
+      </c>
+      <c r="H9">
+        <v>0.06251826260607511</v>
+      </c>
+      <c r="I9">
+        <v>-0.09236228288945354</v>
+      </c>
+      <c r="J9">
+        <v>0.002335726996733822</v>
+      </c>
+      <c r="K9">
+        <v>-0.08041836055869557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2732122071768729</v>
+        <v>0.2497491435021017</v>
       </c>
       <c r="C10">
-        <v>0.06447203508129692</v>
+        <v>0.09122295620732988</v>
       </c>
       <c r="D10">
-        <v>0.01834547460853669</v>
+        <v>-0.00615763925407562</v>
       </c>
       <c r="E10">
-        <v>-0.02966865861936968</v>
+        <v>0.01365069914643991</v>
       </c>
       <c r="F10">
-        <v>0.009926003098855059</v>
+        <v>0.01037983109066923</v>
       </c>
       <c r="G10">
-        <v>0.01148054698295905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02555644454117074</v>
+      </c>
+      <c r="H10">
+        <v>0.02837676453111639</v>
+      </c>
+      <c r="I10">
+        <v>-0.01492859219444687</v>
+      </c>
+      <c r="J10">
+        <v>-0.1355068005008464</v>
+      </c>
+      <c r="K10">
+        <v>0.08159335566349665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.002265183068924157</v>
+        <v>0.01663910490648544</v>
       </c>
       <c r="C11">
-        <v>-0.06760462028871508</v>
+        <v>-0.08141147246359222</v>
       </c>
       <c r="D11">
-        <v>-0.02946617446954065</v>
+        <v>0.03842624475777724</v>
       </c>
       <c r="E11">
-        <v>-0.02690513866890773</v>
+        <v>-0.005897796471728629</v>
       </c>
       <c r="F11">
-        <v>0.005535371992240528</v>
+        <v>0.01111317593127629</v>
       </c>
       <c r="G11">
-        <v>0.0394714662487033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01210119968611428</v>
+      </c>
+      <c r="H11">
+        <v>0.02081839875160336</v>
+      </c>
+      <c r="I11">
+        <v>-0.02538753008763653</v>
+      </c>
+      <c r="J11">
+        <v>0.02902968296532523</v>
+      </c>
+      <c r="K11">
+        <v>-0.00103152682604346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.0002440058090329181</v>
+        <v>0.01559219443642221</v>
       </c>
       <c r="C12">
-        <v>-0.04554362739435275</v>
+        <v>-0.05409544801755631</v>
       </c>
       <c r="D12">
-        <v>-0.0357378345798368</v>
+        <v>0.02556715522980858</v>
       </c>
       <c r="E12">
-        <v>-0.02130206157072609</v>
+        <v>0.01828586640880479</v>
       </c>
       <c r="F12">
-        <v>-0.02562556226917603</v>
+        <v>0.008328070849342954</v>
       </c>
       <c r="G12">
-        <v>0.04861441435868048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02842658622645075</v>
+      </c>
+      <c r="H12">
+        <v>0.01294254706035012</v>
+      </c>
+      <c r="I12">
+        <v>-0.02627985371928545</v>
+      </c>
+      <c r="J12">
+        <v>0.01817755965692357</v>
+      </c>
+      <c r="K12">
+        <v>-0.006490023783054056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.005878027208462059</v>
+        <v>0.003934313094268692</v>
       </c>
       <c r="C13">
-        <v>-0.1257209987108981</v>
+        <v>-0.1153548467762293</v>
       </c>
       <c r="D13">
-        <v>-0.0827736024265445</v>
+        <v>0.04188248689305809</v>
       </c>
       <c r="E13">
-        <v>0.03927121698306196</v>
+        <v>0.09533314586785074</v>
       </c>
       <c r="F13">
-        <v>-0.06873578213419682</v>
+        <v>-0.1255927143627278</v>
       </c>
       <c r="G13">
-        <v>0.152602863418706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1424778583941405</v>
+      </c>
+      <c r="H13">
+        <v>0.1344007345705656</v>
+      </c>
+      <c r="I13">
+        <v>-0.01058240353935235</v>
+      </c>
+      <c r="J13">
+        <v>-0.2091791596104262</v>
+      </c>
+      <c r="K13">
+        <v>0.2377860452223617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.006105738001605686</v>
+        <v>0.01991460713585194</v>
       </c>
       <c r="C14">
-        <v>-0.07358825739949748</v>
+        <v>-0.0741465888188603</v>
       </c>
       <c r="D14">
-        <v>-0.04253367281395434</v>
+        <v>0.04769893473059535</v>
       </c>
       <c r="E14">
-        <v>0.02052441639829366</v>
+        <v>0.04215443329471284</v>
       </c>
       <c r="F14">
-        <v>-0.03213026914278935</v>
+        <v>-0.009469518915416685</v>
       </c>
       <c r="G14">
-        <v>0.07942422096242725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.1026483880373646</v>
+      </c>
+      <c r="H14">
+        <v>0.1667320493347735</v>
+      </c>
+      <c r="I14">
+        <v>-0.09876038131290615</v>
+      </c>
+      <c r="J14">
+        <v>0.01628831367060996</v>
+      </c>
+      <c r="K14">
+        <v>0.135224434203085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.003310647734006694</v>
+        <v>0.004626824087793345</v>
       </c>
       <c r="C15">
-        <v>-0.09348994647068125</v>
+        <v>-0.08160130629304259</v>
       </c>
       <c r="D15">
-        <v>-0.05050924592273183</v>
+        <v>0.0351111601706441</v>
       </c>
       <c r="E15">
-        <v>0.03407053737212685</v>
+        <v>-0.01267447235469564</v>
       </c>
       <c r="F15">
-        <v>0.006585942650366334</v>
+        <v>-0.02611898783730085</v>
       </c>
       <c r="G15">
-        <v>0.03280713210392272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03221377638442023</v>
+      </c>
+      <c r="H15">
+        <v>0.07301448244166493</v>
+      </c>
+      <c r="I15">
+        <v>-0.05888800089440337</v>
+      </c>
+      <c r="J15">
+        <v>0.02463263244728106</v>
+      </c>
+      <c r="K15">
+        <v>0.07144051375272714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.006051569250337158</v>
+        <v>0.01561966068109194</v>
       </c>
       <c r="C16">
-        <v>-0.05677643433580933</v>
+        <v>-0.06109796991103397</v>
       </c>
       <c r="D16">
-        <v>-0.02661551949972677</v>
+        <v>0.0269637309454341</v>
       </c>
       <c r="E16">
-        <v>-0.01745043553154817</v>
+        <v>-0.002173993347005847</v>
       </c>
       <c r="F16">
-        <v>-0.009397475817582207</v>
+        <v>0.007323280682592682</v>
       </c>
       <c r="G16">
-        <v>0.02308209961386886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.009421545154027638</v>
+      </c>
+      <c r="H16">
+        <v>0.01264629165522751</v>
+      </c>
+      <c r="I16">
+        <v>-0.01905549774803386</v>
+      </c>
+      <c r="J16">
+        <v>0.02051956609136957</v>
+      </c>
+      <c r="K16">
+        <v>-0.01079116966187868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.007436065880224593</v>
+        <v>0.01558025416570385</v>
       </c>
       <c r="C20">
-        <v>-0.08767333910157185</v>
+        <v>-0.08515121496660955</v>
       </c>
       <c r="D20">
-        <v>-0.03957272847217985</v>
+        <v>0.02608554873821822</v>
       </c>
       <c r="E20">
-        <v>-0.03399870375094649</v>
+        <v>-0.02206755716861074</v>
       </c>
       <c r="F20">
-        <v>-0.005291362469172904</v>
+        <v>0.01305152724780618</v>
       </c>
       <c r="G20">
-        <v>0.09201494055427885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04361581837972753</v>
+      </c>
+      <c r="H20">
+        <v>0.05921413131688311</v>
+      </c>
+      <c r="I20">
+        <v>-0.03493097299512496</v>
+      </c>
+      <c r="J20">
+        <v>0.02189677445859874</v>
+      </c>
+      <c r="K20">
+        <v>-0.00614130080378842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.0005891007023356252</v>
+        <v>0.01265206231376161</v>
       </c>
       <c r="C21">
-        <v>-0.08914463722258728</v>
+        <v>-0.06874646763976038</v>
       </c>
       <c r="D21">
-        <v>0.009439539432239108</v>
+        <v>0.01848666258267989</v>
       </c>
       <c r="E21">
-        <v>0.03068179849847598</v>
+        <v>0.08344484540629203</v>
       </c>
       <c r="F21">
-        <v>-0.05566632870825747</v>
+        <v>-0.03404784426208465</v>
       </c>
       <c r="G21">
-        <v>0.01194688788372744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02715814627405877</v>
+      </c>
+      <c r="H21">
+        <v>0.1396930378972426</v>
+      </c>
+      <c r="I21">
+        <v>-0.05224512675199133</v>
+      </c>
+      <c r="J21">
+        <v>-0.01977460335373074</v>
+      </c>
+      <c r="K21">
+        <v>0.02474801414995712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.00974079863542964</v>
+        <v>0.005076247964012385</v>
       </c>
       <c r="C22">
-        <v>-0.2424924399150651</v>
+        <v>-0.1728086439233407</v>
       </c>
       <c r="D22">
-        <v>0.07649910374082639</v>
+        <v>0.01935112343044858</v>
       </c>
       <c r="E22">
-        <v>0.317954997155284</v>
+        <v>-0.1669636871324665</v>
       </c>
       <c r="F22">
-        <v>0.3155976731049152</v>
+        <v>-0.5056325076556595</v>
       </c>
       <c r="G22">
-        <v>-0.02337961440449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.01414554313907749</v>
+      </c>
+      <c r="H22">
+        <v>-0.2522914185735811</v>
+      </c>
+      <c r="I22">
+        <v>0.1949007191777408</v>
+      </c>
+      <c r="J22">
+        <v>0.01257100273697213</v>
+      </c>
+      <c r="K22">
+        <v>0.1751061886756858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01065341393187657</v>
+        <v>0.01027443474089566</v>
       </c>
       <c r="C23">
-        <v>-0.2466310842867099</v>
+        <v>-0.1765053598418195</v>
       </c>
       <c r="D23">
-        <v>0.08113482370802251</v>
+        <v>0.01912505447746933</v>
       </c>
       <c r="E23">
-        <v>0.3126916472475285</v>
+        <v>-0.1605045497242155</v>
       </c>
       <c r="F23">
-        <v>0.3108325096948475</v>
+        <v>-0.4915306843294275</v>
       </c>
       <c r="G23">
-        <v>-0.02387019598019267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.01188928294326783</v>
+      </c>
+      <c r="H23">
+        <v>-0.2385121764242187</v>
+      </c>
+      <c r="I23">
+        <v>0.175601148592354</v>
+      </c>
+      <c r="J23">
+        <v>0.01645758737096376</v>
+      </c>
+      <c r="K23">
+        <v>0.1630375343766472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0004930177050188976</v>
+        <v>0.0162655190552456</v>
       </c>
       <c r="C24">
-        <v>-0.05549622159881776</v>
+        <v>-0.06441285124673993</v>
       </c>
       <c r="D24">
-        <v>-0.0409877900199583</v>
+        <v>0.04021637694997571</v>
       </c>
       <c r="E24">
-        <v>-0.02241214236829087</v>
+        <v>-0.004811572454300334</v>
       </c>
       <c r="F24">
-        <v>-0.0008199452487010122</v>
+        <v>0.006874481711940872</v>
       </c>
       <c r="G24">
-        <v>0.04952199973894349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02715790749722408</v>
+      </c>
+      <c r="H24">
+        <v>0.02777672422985432</v>
+      </c>
+      <c r="I24">
+        <v>-0.02901832479477435</v>
+      </c>
+      <c r="J24">
+        <v>0.02340138436084102</v>
+      </c>
+      <c r="K24">
+        <v>-0.006569882004587408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.001269392773017639</v>
+        <v>0.02025345366989851</v>
       </c>
       <c r="C25">
-        <v>-0.06551978657985012</v>
+        <v>-0.06797733737663188</v>
       </c>
       <c r="D25">
-        <v>-0.02190036976387659</v>
+        <v>0.03292874593635019</v>
       </c>
       <c r="E25">
-        <v>-0.02671009139638103</v>
+        <v>-0.00496131774690623</v>
       </c>
       <c r="F25">
-        <v>-0.004576351701314968</v>
+        <v>0.005571703113190261</v>
       </c>
       <c r="G25">
-        <v>0.05236724297716978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02167577285423649</v>
+      </c>
+      <c r="H25">
+        <v>0.0193517318263336</v>
+      </c>
+      <c r="I25">
+        <v>-0.03235644484123346</v>
+      </c>
+      <c r="J25">
+        <v>0.009113004949623095</v>
+      </c>
+      <c r="K25">
+        <v>0.01150625048162044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0005379814107467939</v>
+        <v>0.02271803300078307</v>
       </c>
       <c r="C26">
-        <v>-0.04620039246162454</v>
+        <v>-0.05638791639693788</v>
       </c>
       <c r="D26">
-        <v>-0.06800620547843618</v>
+        <v>0.06259902460244662</v>
       </c>
       <c r="E26">
-        <v>0.002903477237187033</v>
+        <v>-0.006402700492209189</v>
       </c>
       <c r="F26">
-        <v>-0.03699851397095525</v>
+        <v>0.01429235384274113</v>
       </c>
       <c r="G26">
-        <v>0.03361490293033188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.007493498346568965</v>
+      </c>
+      <c r="H26">
+        <v>0.08059940413294558</v>
+      </c>
+      <c r="I26">
+        <v>-0.07578847630666989</v>
+      </c>
+      <c r="J26">
+        <v>0.03677134222185224</v>
+      </c>
+      <c r="K26">
+        <v>-0.1264490887148495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.368189734363817</v>
+        <v>0.3126591115269178</v>
       </c>
       <c r="C28">
-        <v>0.07830128047791031</v>
+        <v>0.1083358473262022</v>
       </c>
       <c r="D28">
-        <v>0.01264283652261804</v>
+        <v>-0.03308938805760762</v>
       </c>
       <c r="E28">
-        <v>-0.04787025168772927</v>
+        <v>-0.0005535458422310725</v>
       </c>
       <c r="F28">
-        <v>-0.05378677268234357</v>
+        <v>-0.05253636709661436</v>
       </c>
       <c r="G28">
-        <v>-0.08450861764196296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1085363035689006</v>
+      </c>
+      <c r="H28">
+        <v>0.07267482492666114</v>
+      </c>
+      <c r="I28">
+        <v>-0.01282832643212197</v>
+      </c>
+      <c r="J28">
+        <v>-0.2102581457775955</v>
+      </c>
+      <c r="K28">
+        <v>-0.01926173268004469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.005803995171441153</v>
+        <v>0.01553699812807922</v>
       </c>
       <c r="C29">
-        <v>-0.07996591577290119</v>
+        <v>-0.08332345130333471</v>
       </c>
       <c r="D29">
-        <v>-0.0484962107118538</v>
+        <v>0.05048745062645511</v>
       </c>
       <c r="E29">
-        <v>0.005197971571555667</v>
+        <v>0.04659187818391747</v>
       </c>
       <c r="F29">
-        <v>-0.03580142897582059</v>
+        <v>-0.01232438919386842</v>
       </c>
       <c r="G29">
-        <v>0.1142178627818933</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1499951578866725</v>
+      </c>
+      <c r="H29">
+        <v>0.2249754562308362</v>
+      </c>
+      <c r="I29">
+        <v>-0.1599203742593657</v>
+      </c>
+      <c r="J29">
+        <v>-0.002272583537638945</v>
+      </c>
+      <c r="K29">
+        <v>0.2153178854155653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01580731834000016</v>
+        <v>0.03152027650487354</v>
       </c>
       <c r="C30">
-        <v>-0.1674350366766263</v>
+        <v>-0.1430233341959982</v>
       </c>
       <c r="D30">
-        <v>-0.06699549094166521</v>
+        <v>0.05490226037480973</v>
       </c>
       <c r="E30">
-        <v>0.02744137210796177</v>
+        <v>-0.02266597357442365</v>
       </c>
       <c r="F30">
-        <v>0.04808322587213792</v>
+        <v>-0.0526778050348671</v>
       </c>
       <c r="G30">
-        <v>0.02000771088486158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01355477651543277</v>
+      </c>
+      <c r="H30">
+        <v>0.03601742666315653</v>
+      </c>
+      <c r="I30">
+        <v>-0.01631890875789378</v>
+      </c>
+      <c r="J30">
+        <v>0.05580231451848915</v>
+      </c>
+      <c r="K30">
+        <v>-0.0916729426812138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004278706164110082</v>
+        <v>0.01440302732392957</v>
       </c>
       <c r="C31">
-        <v>-0.05407973657621172</v>
+        <v>-0.07907381740191678</v>
       </c>
       <c r="D31">
-        <v>-0.03438482352720116</v>
+        <v>0.04152308560773981</v>
       </c>
       <c r="E31">
-        <v>-0.02448992688062121</v>
+        <v>0.0003951093079441759</v>
       </c>
       <c r="F31">
-        <v>-0.01438165497764627</v>
+        <v>-0.00189990490290346</v>
       </c>
       <c r="G31">
-        <v>0.01632946314154437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02147416899107023</v>
+      </c>
+      <c r="H31">
+        <v>0.02610812611757707</v>
+      </c>
+      <c r="I31">
+        <v>-0.03423847464141874</v>
+      </c>
+      <c r="J31">
+        <v>0.01037278398492976</v>
+      </c>
+      <c r="K31">
+        <v>0.01439667783746992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0168659057237348</v>
+        <v>0.02154963855019145</v>
       </c>
       <c r="C32">
-        <v>-0.07504849051006428</v>
+        <v>-0.05157745710510253</v>
       </c>
       <c r="D32">
-        <v>-0.006559752774396342</v>
+        <v>0.02441148496596595</v>
       </c>
       <c r="E32">
-        <v>0.1457217023339731</v>
+        <v>0.04697394348584918</v>
       </c>
       <c r="F32">
-        <v>0.0011037976552997</v>
+        <v>-0.1058477073016943</v>
       </c>
       <c r="G32">
-        <v>0.08877705429955925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.08827844870869883</v>
+      </c>
+      <c r="H32">
+        <v>0.1475301006867263</v>
+      </c>
+      <c r="I32">
+        <v>-0.05593394854590943</v>
+      </c>
+      <c r="J32">
+        <v>-0.2659088394190909</v>
+      </c>
+      <c r="K32">
+        <v>0.06475879605204811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.007458689871160761</v>
+        <v>0.01689608329783725</v>
       </c>
       <c r="C33">
-        <v>-0.09205701272368877</v>
+        <v>-0.1037047479905708</v>
       </c>
       <c r="D33">
-        <v>-0.06434481180143417</v>
+        <v>0.05215200040786847</v>
       </c>
       <c r="E33">
-        <v>0.003184998324768724</v>
+        <v>-0.01129411166699772</v>
       </c>
       <c r="F33">
-        <v>-0.01426075701426611</v>
+        <v>-0.01644555527583958</v>
       </c>
       <c r="G33">
-        <v>0.04538118341120873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0333702101993968</v>
+      </c>
+      <c r="H33">
+        <v>0.04664644776241113</v>
+      </c>
+      <c r="I33">
+        <v>-0.02742253933774296</v>
+      </c>
+      <c r="J33">
+        <v>-0.01722738869011556</v>
+      </c>
+      <c r="K33">
+        <v>-0.009000273430551861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.000744143900985118</v>
+        <v>0.01676514578417614</v>
       </c>
       <c r="C34">
-        <v>-0.04717579872949063</v>
+        <v>-0.04784318514043426</v>
       </c>
       <c r="D34">
-        <v>-0.01929923313308029</v>
+        <v>0.01985441605412333</v>
       </c>
       <c r="E34">
-        <v>-0.007448591794835577</v>
+        <v>0.005982031754481788</v>
       </c>
       <c r="F34">
-        <v>-0.02336598427390545</v>
+        <v>0.008710642692534973</v>
       </c>
       <c r="G34">
-        <v>0.03132250961015504</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01526381578903082</v>
+      </c>
+      <c r="H34">
+        <v>-0.001988283701408005</v>
+      </c>
+      <c r="I34">
+        <v>-0.0142716335801428</v>
+      </c>
+      <c r="J34">
+        <v>0.01755522350577874</v>
+      </c>
+      <c r="K34">
+        <v>-0.002959313215762614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001936321680677822</v>
+        <v>0.01018423194208379</v>
       </c>
       <c r="C35">
-        <v>-0.02816009853393548</v>
+        <v>-0.04545056433310202</v>
       </c>
       <c r="D35">
-        <v>-0.008468369441846681</v>
+        <v>0.0214126177942636</v>
       </c>
       <c r="E35">
-        <v>0.001643433155090442</v>
+        <v>0.01068008466427939</v>
       </c>
       <c r="F35">
-        <v>-0.00960795472982116</v>
+        <v>-0.008429723100696352</v>
       </c>
       <c r="G35">
-        <v>0.04045130447675882</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.063823275768399</v>
+      </c>
+      <c r="H35">
+        <v>0.1134418671991325</v>
+      </c>
+      <c r="I35">
+        <v>-0.09879447123066526</v>
+      </c>
+      <c r="J35">
+        <v>-0.006991538354682562</v>
+      </c>
+      <c r="K35">
+        <v>0.161886472502902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.004827152591271531</v>
+        <v>0.01447362481135555</v>
       </c>
       <c r="C36">
-        <v>-0.05069213266103893</v>
+        <v>-0.04705814208012099</v>
       </c>
       <c r="D36">
-        <v>-0.05527933539799729</v>
+        <v>0.04408673795511219</v>
       </c>
       <c r="E36">
-        <v>-0.006226056789041396</v>
+        <v>-0.005760734351137747</v>
       </c>
       <c r="F36">
-        <v>-0.01551136050229459</v>
+        <v>-0.01119300659050918</v>
       </c>
       <c r="G36">
-        <v>0.02740579554869733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.006781325190274564</v>
+      </c>
+      <c r="H36">
+        <v>0.07068289117342173</v>
+      </c>
+      <c r="I36">
+        <v>-0.04341583767371121</v>
+      </c>
+      <c r="J36">
+        <v>0.007340468035510497</v>
+      </c>
+      <c r="K36">
+        <v>-0.0509608162380989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.0301622961625981</v>
+        <v>0.009669587942299497</v>
       </c>
       <c r="C38">
-        <v>-0.05820017374728265</v>
+        <v>-0.05913865834573716</v>
       </c>
       <c r="D38">
-        <v>-0.04610204645219935</v>
+        <v>0.03911880464948079</v>
       </c>
       <c r="E38">
-        <v>-0.02090011054363205</v>
+        <v>-0.03621792672239046</v>
       </c>
       <c r="F38">
-        <v>-0.003057349190667909</v>
+        <v>-0.01642497611390839</v>
       </c>
       <c r="G38">
-        <v>0.04107036005165664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02086128036236102</v>
+      </c>
+      <c r="H38">
+        <v>0.09700795757081952</v>
+      </c>
+      <c r="I38">
+        <v>-0.0006333068906936846</v>
+      </c>
+      <c r="J38">
+        <v>-0.0520693725554906</v>
+      </c>
+      <c r="K38">
+        <v>0.01878365047782552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.002301341865015523</v>
+        <v>0.02317312903881826</v>
       </c>
       <c r="C39">
-        <v>-0.1250073160871492</v>
+        <v>-0.1330624231717999</v>
       </c>
       <c r="D39">
-        <v>-0.05751832884198931</v>
+        <v>0.0596262363966724</v>
       </c>
       <c r="E39">
-        <v>-0.0143308159234702</v>
+        <v>0.01159070650847268</v>
       </c>
       <c r="F39">
-        <v>-0.0116310094701211</v>
+        <v>0.01360971575200099</v>
       </c>
       <c r="G39">
-        <v>0.07225714866078853</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04256683855793617</v>
+      </c>
+      <c r="H39">
+        <v>0.03871264427147653</v>
+      </c>
+      <c r="I39">
+        <v>-0.007566484006287614</v>
+      </c>
+      <c r="J39">
+        <v>0.1051462692101591</v>
+      </c>
+      <c r="K39">
+        <v>-0.03899125066932783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.002185540961162942</v>
+        <v>0.01326886903870845</v>
       </c>
       <c r="C40">
-        <v>-0.02936821339497724</v>
+        <v>-0.05489950426671947</v>
       </c>
       <c r="D40">
-        <v>-0.02767354877905095</v>
+        <v>0.04228882924342654</v>
       </c>
       <c r="E40">
-        <v>0.1202259810380591</v>
+        <v>0.027697850341455</v>
       </c>
       <c r="F40">
-        <v>0.05860250294093805</v>
+        <v>-0.03126612838979675</v>
       </c>
       <c r="G40">
-        <v>0.1005688031176079</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1555690517987643</v>
+      </c>
+      <c r="H40">
+        <v>-0.001204470780980169</v>
+      </c>
+      <c r="I40">
+        <v>-0.04232761409394026</v>
+      </c>
+      <c r="J40">
+        <v>0.006615849252883055</v>
+      </c>
+      <c r="K40">
+        <v>0.2587284874811094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01154099580189515</v>
+        <v>0.02208709338878725</v>
       </c>
       <c r="C41">
-        <v>-0.02397286068464393</v>
+        <v>-0.04777736535706482</v>
       </c>
       <c r="D41">
-        <v>-0.005577165811887423</v>
+        <v>0.01523932886484499</v>
       </c>
       <c r="E41">
-        <v>-0.003683728879746693</v>
+        <v>0.002541202460018224</v>
       </c>
       <c r="F41">
-        <v>-0.009405085437931466</v>
+        <v>0.01802343578937912</v>
       </c>
       <c r="G41">
-        <v>-0.03642235079096808</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.003825019386211606</v>
+      </c>
+      <c r="H41">
+        <v>0.02258103211756197</v>
+      </c>
+      <c r="I41">
+        <v>-0.008476773746241487</v>
+      </c>
+      <c r="J41">
+        <v>-0.02838658463528787</v>
+      </c>
+      <c r="K41">
+        <v>0.0404316927474721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005741062955724007</v>
+        <v>0.01859081409173819</v>
       </c>
       <c r="C43">
-        <v>-0.021242754984392</v>
+        <v>-0.04275011079186439</v>
       </c>
       <c r="D43">
-        <v>-0.02292464882824251</v>
+        <v>0.02907542225952311</v>
       </c>
       <c r="E43">
-        <v>-0.007931206484741856</v>
+        <v>-0.01076148235824652</v>
       </c>
       <c r="F43">
-        <v>0.005784278269656544</v>
+        <v>0.01021462094050371</v>
       </c>
       <c r="G43">
-        <v>-0.004423211884186539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.00490553113009487</v>
+      </c>
+      <c r="H43">
+        <v>0.03993552155436563</v>
+      </c>
+      <c r="I43">
+        <v>-0.009692584520611131</v>
+      </c>
+      <c r="J43">
+        <v>0.001421113677504262</v>
+      </c>
+      <c r="K43">
+        <v>0.02952003512030325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01692348384944049</v>
+        <v>0.015695113889087</v>
       </c>
       <c r="C44">
-        <v>-0.09951342590071358</v>
+        <v>-0.09852330591124454</v>
       </c>
       <c r="D44">
-        <v>-0.03487355740962803</v>
+        <v>0.0572424381603436</v>
       </c>
       <c r="E44">
-        <v>0.03137371055193457</v>
+        <v>-0.03897249376672864</v>
       </c>
       <c r="F44">
-        <v>0.02161647349125787</v>
+        <v>-0.0568362484588347</v>
       </c>
       <c r="G44">
-        <v>0.06818287328543567</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.05520616313949078</v>
+      </c>
+      <c r="H44">
+        <v>0.04525340776528546</v>
+      </c>
+      <c r="I44">
+        <v>-0.02009222071287375</v>
+      </c>
+      <c r="J44">
+        <v>0.05030276166129365</v>
+      </c>
+      <c r="K44">
+        <v>-0.08340808461837697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.004622169952877388</v>
+        <v>0.004384779546487403</v>
       </c>
       <c r="C46">
-        <v>-0.06235304137886546</v>
+        <v>-0.06454487250391687</v>
       </c>
       <c r="D46">
-        <v>-0.04902175311376612</v>
+        <v>0.02840428209896879</v>
       </c>
       <c r="E46">
-        <v>0.01022589651578466</v>
+        <v>0.006272492489233258</v>
       </c>
       <c r="F46">
-        <v>-0.009852254276725599</v>
+        <v>0.004700296282165615</v>
       </c>
       <c r="G46">
-        <v>0.06527920790459706</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04985040149526265</v>
+      </c>
+      <c r="H46">
+        <v>0.08442305077106398</v>
+      </c>
+      <c r="I46">
+        <v>-0.04390613236779489</v>
+      </c>
+      <c r="J46">
+        <v>0.004148412351170037</v>
+      </c>
+      <c r="K46">
+        <v>0.07977936519770368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.00503197517405209</v>
+        <v>0.0225386928656058</v>
       </c>
       <c r="C47">
-        <v>-0.06051522644723064</v>
+        <v>-0.07607423186215471</v>
       </c>
       <c r="D47">
-        <v>-0.05510658578288583</v>
+        <v>0.04371095047701336</v>
       </c>
       <c r="E47">
-        <v>-0.02762137538107881</v>
+        <v>0.003626145301812726</v>
       </c>
       <c r="F47">
-        <v>-0.05119040277547567</v>
+        <v>0.01643702430046935</v>
       </c>
       <c r="G47">
-        <v>0.02589710256532165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01347052344633666</v>
+      </c>
+      <c r="H47">
+        <v>0.0607176025349289</v>
+      </c>
+      <c r="I47">
+        <v>-0.02945889060492062</v>
+      </c>
+      <c r="J47">
+        <v>-0.01578916037492395</v>
+      </c>
+      <c r="K47">
+        <v>0.02696141341335776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.004397819601573773</v>
+        <v>0.01875108729289362</v>
       </c>
       <c r="C48">
-        <v>-0.05262653766605362</v>
+        <v>-0.04796268392946425</v>
       </c>
       <c r="D48">
-        <v>-0.06002540209845669</v>
+        <v>0.05320634104690534</v>
       </c>
       <c r="E48">
-        <v>0.0004225338793397129</v>
+        <v>-0.01239822566903456</v>
       </c>
       <c r="F48">
-        <v>-0.008626434058002381</v>
+        <v>-0.005585918131344303</v>
       </c>
       <c r="G48">
-        <v>0.03114714958615819</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.009887279450665802</v>
+      </c>
+      <c r="H48">
+        <v>0.07969949092263263</v>
+      </c>
+      <c r="I48">
+        <v>-0.07075192368070457</v>
+      </c>
+      <c r="J48">
+        <v>0.02288854401219168</v>
+      </c>
+      <c r="K48">
+        <v>-0.1069052979637436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01528560296159246</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.03805613880751797</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.008454266188406199</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.006258426353993446</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.06153427897063136</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03219203505989168</v>
+      </c>
+      <c r="H49">
+        <v>-0.0316172647728389</v>
+      </c>
+      <c r="I49">
+        <v>0.01488200101970963</v>
+      </c>
+      <c r="J49">
+        <v>0.08251648152362094</v>
+      </c>
+      <c r="K49">
+        <v>-0.03259287319410741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.00121838038432972</v>
+        <v>0.01467753096370198</v>
       </c>
       <c r="C50">
-        <v>-0.06579119374942094</v>
+        <v>-0.07732754376212732</v>
       </c>
       <c r="D50">
-        <v>-0.0301362914537756</v>
+        <v>0.03105445698316108</v>
       </c>
       <c r="E50">
-        <v>-0.01420611935721619</v>
+        <v>-0.01163510779960431</v>
       </c>
       <c r="F50">
-        <v>0.002911517554629077</v>
+        <v>-0.009990701006667766</v>
       </c>
       <c r="G50">
-        <v>0.03143628485956482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.002509789071825847</v>
+      </c>
+      <c r="H50">
+        <v>0.04241404129455482</v>
+      </c>
+      <c r="I50">
+        <v>-0.04333218616133918</v>
+      </c>
+      <c r="J50">
+        <v>-0.04603327912462247</v>
+      </c>
+      <c r="K50">
+        <v>0.01082752654960199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.002469726075227459</v>
+        <v>-0.004406499568690827</v>
       </c>
       <c r="C51">
-        <v>-0.07061176146706523</v>
+        <v>-0.03492702400536447</v>
       </c>
       <c r="D51">
-        <v>-0.04344440897570363</v>
+        <v>0.02590069067653931</v>
       </c>
       <c r="E51">
-        <v>0.04107831710947057</v>
+        <v>0.002348328925088978</v>
       </c>
       <c r="F51">
-        <v>0.003557198860585467</v>
+        <v>-0.02789452982834884</v>
       </c>
       <c r="G51">
-        <v>0.004972921681909941</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03345946538880665</v>
+      </c>
+      <c r="H51">
+        <v>0.09511508079444753</v>
+      </c>
+      <c r="I51">
+        <v>-0.03968655679418791</v>
+      </c>
+      <c r="J51">
+        <v>0.01378210878605397</v>
+      </c>
+      <c r="K51">
+        <v>-0.1024012555050788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.02739793049928895</v>
+        <v>0.05857002703633746</v>
       </c>
       <c r="C53">
-        <v>-0.1207814158315925</v>
+        <v>-0.1325771926795386</v>
       </c>
       <c r="D53">
-        <v>-0.06560271696505587</v>
+        <v>0.05907756446911933</v>
       </c>
       <c r="E53">
-        <v>-0.1202447394635345</v>
+        <v>0.02667415951828833</v>
       </c>
       <c r="F53">
-        <v>-0.04672549761427487</v>
+        <v>0.06409512488328106</v>
       </c>
       <c r="G53">
-        <v>-0.08256712590019365</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08882869141625482</v>
+      </c>
+      <c r="H53">
+        <v>-0.03056206551749488</v>
+      </c>
+      <c r="I53">
+        <v>-0.01093303474816423</v>
+      </c>
+      <c r="J53">
+        <v>-0.02484732992971332</v>
+      </c>
+      <c r="K53">
+        <v>-0.0008957816068738631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0002969717860144288</v>
+        <v>0.01597807086860483</v>
       </c>
       <c r="C54">
-        <v>-0.06850818113353778</v>
+        <v>-0.07096857920534612</v>
       </c>
       <c r="D54">
-        <v>-0.0114206080684775</v>
+        <v>0.01311578898928781</v>
       </c>
       <c r="E54">
-        <v>-0.02027426320235832</v>
+        <v>0.002506337391321291</v>
       </c>
       <c r="F54">
-        <v>-0.0007851015426477068</v>
+        <v>0.007738354236614961</v>
       </c>
       <c r="G54">
-        <v>0.03222333983137403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02477068642392473</v>
+      </c>
+      <c r="H54">
+        <v>0.03224499340095346</v>
+      </c>
+      <c r="I54">
+        <v>-0.05377340560009022</v>
+      </c>
+      <c r="J54">
+        <v>0.01352928267237348</v>
+      </c>
+      <c r="K54">
+        <v>-0.01009789500748123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01151679947785681</v>
+        <v>0.02992626178229532</v>
       </c>
       <c r="C55">
-        <v>-0.08315775665933958</v>
+        <v>-0.08503129158726631</v>
       </c>
       <c r="D55">
-        <v>-0.06267037478568574</v>
+        <v>0.0546887457137701</v>
       </c>
       <c r="E55">
-        <v>-0.05093509857365506</v>
+        <v>0.01298456497530756</v>
       </c>
       <c r="F55">
-        <v>-0.03635828579308286</v>
+        <v>0.04405622958272593</v>
       </c>
       <c r="G55">
-        <v>-0.01560464772076063</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03780839464453022</v>
+      </c>
+      <c r="H55">
+        <v>-0.01625815682617371</v>
+      </c>
+      <c r="I55">
+        <v>-0.01216937128714164</v>
+      </c>
+      <c r="J55">
+        <v>0.007442307984986245</v>
+      </c>
+      <c r="K55">
+        <v>-0.008340259502119878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01072858807496313</v>
+        <v>0.04552245830291101</v>
       </c>
       <c r="C56">
-        <v>-0.149022972146422</v>
+        <v>-0.1521633244940236</v>
       </c>
       <c r="D56">
-        <v>-0.07080935318390569</v>
+        <v>0.08382534014156819</v>
       </c>
       <c r="E56">
-        <v>-0.08482190970113253</v>
+        <v>0.06321870911395625</v>
       </c>
       <c r="F56">
-        <v>-0.06995087452293908</v>
+        <v>0.08161482995338852</v>
       </c>
       <c r="G56">
-        <v>-0.1243427065901953</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1673143698422106</v>
+      </c>
+      <c r="H56">
+        <v>-0.03582606402685665</v>
+      </c>
+      <c r="I56">
+        <v>-0.01702319925091643</v>
+      </c>
+      <c r="J56">
+        <v>-0.00954668637577266</v>
+      </c>
+      <c r="K56">
+        <v>-0.01930650358411407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02190088201622274</v>
+        <v>0.01846120896185424</v>
       </c>
       <c r="C58">
-        <v>-0.287266783062407</v>
+        <v>-0.1786478032364102</v>
       </c>
       <c r="D58">
-        <v>0.01301469726028758</v>
+        <v>0.04230889778446617</v>
       </c>
       <c r="E58">
-        <v>0.154933765712724</v>
+        <v>-0.09332544449818229</v>
       </c>
       <c r="F58">
-        <v>0.2614234138405753</v>
+        <v>-0.3063445074087471</v>
       </c>
       <c r="G58">
-        <v>-0.04757796418571619</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.0641405962820598</v>
+      </c>
+      <c r="H58">
+        <v>0.1076370957906952</v>
+      </c>
+      <c r="I58">
+        <v>0.02474580663634961</v>
+      </c>
+      <c r="J58">
+        <v>-0.07962794788532009</v>
+      </c>
+      <c r="K58">
+        <v>-0.3524703378397461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2883686319378405</v>
+        <v>0.2904264162488033</v>
       </c>
       <c r="C59">
-        <v>-0.007060810952973218</v>
+        <v>0.04645086297972009</v>
       </c>
       <c r="D59">
-        <v>0.005660812005635025</v>
+        <v>-0.005813067941329442</v>
       </c>
       <c r="E59">
-        <v>0.05419872623557321</v>
+        <v>0.009926368177207616</v>
       </c>
       <c r="F59">
-        <v>-0.04762270580285752</v>
+        <v>-0.04884088731193507</v>
       </c>
       <c r="G59">
-        <v>-0.01280076451244632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003115922300677148</v>
+      </c>
+      <c r="H59">
+        <v>-0.0142444417870297</v>
+      </c>
+      <c r="I59">
+        <v>0.02680820237793999</v>
+      </c>
+      <c r="J59">
+        <v>-0.02602395605915882</v>
+      </c>
+      <c r="K59">
+        <v>0.02628521974673578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1011829649633041</v>
+        <v>0.1484041324796884</v>
       </c>
       <c r="C60">
-        <v>-0.1457968035765427</v>
+        <v>-0.1555214855806618</v>
       </c>
       <c r="D60">
-        <v>-0.07935889268487571</v>
+        <v>0.043737813261025</v>
       </c>
       <c r="E60">
-        <v>-0.09493645050008211</v>
+        <v>0.06279704551922011</v>
       </c>
       <c r="F60">
-        <v>-0.190910826326508</v>
+        <v>0.1224852945653379</v>
       </c>
       <c r="G60">
-        <v>0.2632268425513257</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2281275310036814</v>
+      </c>
+      <c r="H60">
+        <v>-0.2414899002304253</v>
+      </c>
+      <c r="I60">
+        <v>0.1071671146614981</v>
+      </c>
+      <c r="J60">
+        <v>0.009156188862833559</v>
+      </c>
+      <c r="K60">
+        <v>-0.01793295766143608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.001692757327709156</v>
+        <v>0.02287111626304364</v>
       </c>
       <c r="C61">
-        <v>-0.08022254317791383</v>
+        <v>-0.09757838118248219</v>
       </c>
       <c r="D61">
-        <v>-0.06398042592021004</v>
+        <v>0.05527587853797996</v>
       </c>
       <c r="E61">
-        <v>-0.02849429126110942</v>
+        <v>0.01012089606804972</v>
       </c>
       <c r="F61">
-        <v>-0.02929586219031045</v>
+        <v>0.026317237391012</v>
       </c>
       <c r="G61">
-        <v>0.07315203936044758</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02968801492195315</v>
+      </c>
+      <c r="H61">
+        <v>0.03275622349735353</v>
+      </c>
+      <c r="I61">
+        <v>-0.04852109635446031</v>
+      </c>
+      <c r="J61">
+        <v>0.04023044300670706</v>
+      </c>
+      <c r="K61">
+        <v>0.006190998278185235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.003194881410424372</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01336432062517959</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003097181113943105</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01231889056292959</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01574114320452873</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01784132397490101</v>
+      </c>
+      <c r="H62">
+        <v>-0.0181168573352747</v>
+      </c>
+      <c r="I62">
+        <v>-0.05095080301555749</v>
+      </c>
+      <c r="J62">
+        <v>-0.01584119638832683</v>
+      </c>
+      <c r="K62">
+        <v>0.005102883389129253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001509157393868737</v>
+        <v>0.0261126080127655</v>
       </c>
       <c r="C63">
-        <v>-0.05976822403272739</v>
+        <v>-0.06456529288267088</v>
       </c>
       <c r="D63">
-        <v>-0.04346256025987424</v>
+        <v>0.05877623353611693</v>
       </c>
       <c r="E63">
-        <v>-0.0342739907418585</v>
+        <v>0.005991555107974858</v>
       </c>
       <c r="F63">
-        <v>-0.00229898676916612</v>
+        <v>0.01039604896081628</v>
       </c>
       <c r="G63">
-        <v>0.02019825202638267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.005305205262165191</v>
+      </c>
+      <c r="H63">
+        <v>0.03818279080999161</v>
+      </c>
+      <c r="I63">
+        <v>-0.06220393524001095</v>
+      </c>
+      <c r="J63">
+        <v>0.01467424314832651</v>
+      </c>
+      <c r="K63">
+        <v>0.001142736163015451</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.006197435146338671</v>
+        <v>0.01780950774596307</v>
       </c>
       <c r="C64">
-        <v>-0.07867613966800577</v>
+        <v>-0.09174228422188267</v>
       </c>
       <c r="D64">
-        <v>-0.06833836162892584</v>
+        <v>0.03407095080417775</v>
       </c>
       <c r="E64">
-        <v>-0.006966933642220707</v>
+        <v>-0.03052972179077697</v>
       </c>
       <c r="F64">
-        <v>0.008170956425878206</v>
+        <v>-0.02192606232749562</v>
       </c>
       <c r="G64">
-        <v>0.06000877764721383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06907465917189254</v>
+      </c>
+      <c r="H64">
+        <v>0.003420924552743907</v>
+      </c>
+      <c r="I64">
+        <v>-0.06768410555658398</v>
+      </c>
+      <c r="J64">
+        <v>0.07057014147410666</v>
+      </c>
+      <c r="K64">
+        <v>0.009973613869180352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.00165943040520802</v>
+        <v>0.03032013488837193</v>
       </c>
       <c r="C65">
-        <v>-0.08664535647599637</v>
+        <v>-0.09225805243548812</v>
       </c>
       <c r="D65">
-        <v>-0.03503281458403853</v>
+        <v>0.02248087283001197</v>
       </c>
       <c r="E65">
-        <v>0.0189350461825862</v>
+        <v>-0.01749984156336343</v>
       </c>
       <c r="F65">
-        <v>-0.003213053617076859</v>
+        <v>0.0002790237749132583</v>
       </c>
       <c r="G65">
-        <v>0.07047953353629863</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.08520932558031744</v>
+      </c>
+      <c r="H65">
+        <v>0.00587858506725741</v>
+      </c>
+      <c r="I65">
+        <v>0.02358848653985392</v>
+      </c>
+      <c r="J65">
+        <v>0.08042017048499191</v>
+      </c>
+      <c r="K65">
+        <v>-0.09345532948563165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.006187566641823983</v>
+        <v>0.01896199263098066</v>
       </c>
       <c r="C66">
-        <v>-0.1686592372849916</v>
+        <v>-0.1703031813752726</v>
       </c>
       <c r="D66">
-        <v>-0.04913708950241621</v>
+        <v>0.05101718376043895</v>
       </c>
       <c r="E66">
-        <v>0.03073223873332456</v>
+        <v>0.0168204667158001</v>
       </c>
       <c r="F66">
-        <v>-0.02602691431046545</v>
+        <v>-0.005019309322427575</v>
       </c>
       <c r="G66">
-        <v>0.09740388081710424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03402542361460272</v>
+      </c>
+      <c r="H66">
+        <v>0.04227748666925709</v>
+      </c>
+      <c r="I66">
+        <v>-0.03422700219592453</v>
+      </c>
+      <c r="J66">
+        <v>0.0792820091430031</v>
+      </c>
+      <c r="K66">
+        <v>-0.02677680208080683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02918552646903417</v>
+        <v>0.01837883410019722</v>
       </c>
       <c r="C67">
-        <v>-0.03286627767325388</v>
+        <v>-0.05026600507106448</v>
       </c>
       <c r="D67">
-        <v>-0.06138426170955087</v>
+        <v>0.04023029756586541</v>
       </c>
       <c r="E67">
-        <v>-0.05196869910672373</v>
+        <v>-0.02600211329825776</v>
       </c>
       <c r="F67">
-        <v>-0.01607688235205533</v>
+        <v>0.01855684798172815</v>
       </c>
       <c r="G67">
-        <v>0.05077258934237632</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0439548744126777</v>
+      </c>
+      <c r="H67">
+        <v>0.07282908273494547</v>
+      </c>
+      <c r="I67">
+        <v>0.01339997496769603</v>
+      </c>
+      <c r="J67">
+        <v>-0.04639141912106457</v>
+      </c>
+      <c r="K67">
+        <v>0.0344314502671994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2932924773776048</v>
+        <v>0.2941382535644534</v>
       </c>
       <c r="C68">
-        <v>0.01418153249776195</v>
+        <v>0.07074875752799931</v>
       </c>
       <c r="D68">
-        <v>-0.00706310918762581</v>
+        <v>-0.02311319894681612</v>
       </c>
       <c r="E68">
-        <v>0.02556862914661614</v>
+        <v>-0.001967546613259913</v>
       </c>
       <c r="F68">
-        <v>-0.008564274388025879</v>
+        <v>-0.04417451561246196</v>
       </c>
       <c r="G68">
-        <v>0.0057653111576849</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01923497217080699</v>
+      </c>
+      <c r="H68">
+        <v>0.008302463074928367</v>
+      </c>
+      <c r="I68">
+        <v>-0.05643641810844016</v>
+      </c>
+      <c r="J68">
+        <v>-0.04869607283483213</v>
+      </c>
+      <c r="K68">
+        <v>-0.01029375358481912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.00460624144997122</v>
+        <v>0.008525604467620337</v>
       </c>
       <c r="C69">
-        <v>-0.05066191602955061</v>
+        <v>-0.04677389934285912</v>
       </c>
       <c r="D69">
-        <v>-0.05215846339256771</v>
+        <v>0.02461262710777147</v>
       </c>
       <c r="E69">
-        <v>-0.03777172106620275</v>
+        <v>0.006509867507984685</v>
       </c>
       <c r="F69">
-        <v>-0.004676318823584529</v>
+        <v>0.01206715248344104</v>
       </c>
       <c r="G69">
-        <v>0.02748549705131966</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02618329774754544</v>
+      </c>
+      <c r="H69">
+        <v>0.02822314113642172</v>
+      </c>
+      <c r="I69">
+        <v>-0.01193454024242556</v>
+      </c>
+      <c r="J69">
+        <v>-0.02091092267002509</v>
+      </c>
+      <c r="K69">
+        <v>0.005525912166805673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2894796840721282</v>
+        <v>0.276263819551079</v>
       </c>
       <c r="C71">
-        <v>0.03233606455963974</v>
+        <v>0.07547738327146773</v>
       </c>
       <c r="D71">
-        <v>0.006886758494216585</v>
+        <v>-0.02280040316759124</v>
       </c>
       <c r="E71">
-        <v>0.02150485879840352</v>
+        <v>-0.02573892469371657</v>
       </c>
       <c r="F71">
-        <v>0.01683300430458225</v>
+        <v>-0.06604961427467927</v>
       </c>
       <c r="G71">
-        <v>-0.00529934110588328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01775690924005812</v>
+      </c>
+      <c r="H71">
+        <v>0.04903193996747217</v>
+      </c>
+      <c r="I71">
+        <v>-0.02629048517570178</v>
+      </c>
+      <c r="J71">
+        <v>-0.1149774207905527</v>
+      </c>
+      <c r="K71">
+        <v>-0.0377720011336866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.006201420998911331</v>
+        <v>0.05347586290244222</v>
       </c>
       <c r="C72">
-        <v>-0.1503841530450644</v>
+        <v>-0.1404651564314349</v>
       </c>
       <c r="D72">
-        <v>-0.06826563513943551</v>
+        <v>0.05023779337610047</v>
       </c>
       <c r="E72">
-        <v>-0.01100742150625366</v>
+        <v>0.02051544790740374</v>
       </c>
       <c r="F72">
-        <v>0.04144730285004645</v>
+        <v>0.02821941475307327</v>
       </c>
       <c r="G72">
-        <v>0.1359212728632014</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.009856556795080363</v>
+      </c>
+      <c r="H72">
+        <v>0.007900436050228242</v>
+      </c>
+      <c r="I72">
+        <v>-0.06575005140408102</v>
+      </c>
+      <c r="J72">
+        <v>0.09237664967511318</v>
+      </c>
+      <c r="K72">
+        <v>-0.06749899667756903</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06177890029990193</v>
+        <v>0.1507789595998391</v>
       </c>
       <c r="C73">
-        <v>-0.108129489057297</v>
+        <v>-0.1955189144188261</v>
       </c>
       <c r="D73">
-        <v>-0.1151167819597645</v>
+        <v>0.08773728486399429</v>
       </c>
       <c r="E73">
-        <v>-0.1812277027261652</v>
+        <v>0.04487660760711683</v>
       </c>
       <c r="F73">
-        <v>-0.2106017287924721</v>
+        <v>0.2384268114562065</v>
       </c>
       <c r="G73">
-        <v>0.3268470863912768</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3513793029933081</v>
+      </c>
+      <c r="H73">
+        <v>-0.2729956495926191</v>
+      </c>
+      <c r="I73">
+        <v>0.1745530904018876</v>
+      </c>
+      <c r="J73">
+        <v>-0.1119868353502085</v>
+      </c>
+      <c r="K73">
+        <v>-0.09831881557607486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.007288771915569746</v>
+        <v>0.03788211130391722</v>
       </c>
       <c r="C74">
-        <v>-0.08014523118820992</v>
+        <v>-0.0998523772199474</v>
       </c>
       <c r="D74">
-        <v>-0.06934409020205935</v>
+        <v>0.04761573959691252</v>
       </c>
       <c r="E74">
-        <v>-0.0683121104858693</v>
+        <v>-0.005212790674865483</v>
       </c>
       <c r="F74">
-        <v>-0.04023177775596608</v>
+        <v>0.03299019283051118</v>
       </c>
       <c r="G74">
-        <v>-0.04954550788105598</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0448172500664255</v>
+      </c>
+      <c r="H74">
+        <v>-0.01357108858933384</v>
+      </c>
+      <c r="I74">
+        <v>-0.03563071328006739</v>
+      </c>
+      <c r="J74">
+        <v>-0.003002703316811118</v>
+      </c>
+      <c r="K74">
+        <v>-0.04523757815039512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03495955806358974</v>
+        <v>0.06114621449729031</v>
       </c>
       <c r="C75">
-        <v>-0.1414180280832859</v>
+        <v>-0.1659158686299243</v>
       </c>
       <c r="D75">
-        <v>-0.07919989631055636</v>
+        <v>0.08509491556508238</v>
       </c>
       <c r="E75">
-        <v>-0.1432514279736239</v>
+        <v>-0.01594287798752294</v>
       </c>
       <c r="F75">
-        <v>-0.02594043611130191</v>
+        <v>0.1088971091139698</v>
       </c>
       <c r="G75">
-        <v>-0.186266470088776</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2191296644329014</v>
+      </c>
+      <c r="H75">
+        <v>-0.01169322938481179</v>
+      </c>
+      <c r="I75">
+        <v>-0.02805328419291528</v>
+      </c>
+      <c r="J75">
+        <v>-0.1174733632637435</v>
+      </c>
+      <c r="K75">
+        <v>0.09296310458430029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01159767347390026</v>
+        <v>0.04236468429612106</v>
       </c>
       <c r="C76">
-        <v>-0.1049879599724739</v>
+        <v>-0.1233268012894118</v>
       </c>
       <c r="D76">
-        <v>-0.06275028708727207</v>
+        <v>0.07503252409698352</v>
       </c>
       <c r="E76">
-        <v>-0.08190207082444648</v>
+        <v>0.02326776911771701</v>
       </c>
       <c r="F76">
-        <v>-0.05759666049305089</v>
+        <v>0.07778021515423271</v>
       </c>
       <c r="G76">
-        <v>-0.05017357350482946</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08235854586651965</v>
+      </c>
+      <c r="H76">
+        <v>-0.02764507389759914</v>
+      </c>
+      <c r="I76">
+        <v>-0.03515593628622003</v>
+      </c>
+      <c r="J76">
+        <v>0.03018490766307402</v>
+      </c>
+      <c r="K76">
+        <v>0.01138107407241428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08794735236800734</v>
+        <v>0.05224302449904219</v>
       </c>
       <c r="C77">
-        <v>-0.3776424345603487</v>
+        <v>-0.4051654485220023</v>
       </c>
       <c r="D77">
-        <v>0.8380075962818548</v>
+        <v>-0.8973572855681944</v>
       </c>
       <c r="E77">
-        <v>-0.2716918272991166</v>
+        <v>-0.01577228920642676</v>
       </c>
       <c r="F77">
-        <v>-0.1208717527959467</v>
+        <v>0.08197760376664277</v>
       </c>
       <c r="G77">
-        <v>0.01116275150576297</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03593882609102231</v>
+      </c>
+      <c r="H77">
+        <v>0.02458344675259186</v>
+      </c>
+      <c r="I77">
+        <v>-0.06503697929588118</v>
+      </c>
+      <c r="J77">
+        <v>-0.008463053436491751</v>
+      </c>
+      <c r="K77">
+        <v>0.001181835780303234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02371550500883446</v>
+        <v>0.03628407082373635</v>
       </c>
       <c r="C78">
-        <v>-0.1281503087679477</v>
+        <v>-0.1136501429365748</v>
       </c>
       <c r="D78">
-        <v>-0.1872437741897433</v>
+        <v>0.09521491912003929</v>
       </c>
       <c r="E78">
-        <v>0.09412281266422445</v>
+        <v>0.03848726905370661</v>
       </c>
       <c r="F78">
-        <v>-0.1315960555622744</v>
+        <v>0.0005097093006214773</v>
       </c>
       <c r="G78">
-        <v>-0.1356079685840199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1095997846182193</v>
+      </c>
+      <c r="H78">
+        <v>0.09734981833631234</v>
+      </c>
+      <c r="I78">
+        <v>0.02326351124056857</v>
+      </c>
+      <c r="J78">
+        <v>0.05567742174018608</v>
+      </c>
+      <c r="K78">
+        <v>-0.3967291595147905</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02098809748990853</v>
+        <v>0.05718370438254907</v>
       </c>
       <c r="C79">
-        <v>-0.169022831918739</v>
+        <v>-0.1453163294528219</v>
       </c>
       <c r="D79">
-        <v>-0.1197509723827426</v>
+        <v>0.07167896605622223</v>
       </c>
       <c r="E79">
-        <v>-0.1065512845977087</v>
+        <v>0.02649036302692102</v>
       </c>
       <c r="F79">
-        <v>-0.06397634543550954</v>
+        <v>0.06077477140287163</v>
       </c>
       <c r="G79">
-        <v>-0.2576768113728152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2372629599214608</v>
+      </c>
+      <c r="H79">
+        <v>0.01120989244850966</v>
+      </c>
+      <c r="I79">
+        <v>-0.04328859600768022</v>
+      </c>
+      <c r="J79">
+        <v>-0.0697143932794201</v>
+      </c>
+      <c r="K79">
+        <v>-0.05852458449132453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007129439483999521</v>
+        <v>0.01938787613736903</v>
       </c>
       <c r="C80">
-        <v>-0.05413095996310277</v>
+        <v>-0.0445890923898146</v>
       </c>
       <c r="D80">
-        <v>-0.05247325187483947</v>
+        <v>0.03772674452161</v>
       </c>
       <c r="E80">
-        <v>0.04038191260677855</v>
+        <v>0.04252713524948452</v>
       </c>
       <c r="F80">
-        <v>-0.01228552549806859</v>
+        <v>-0.0372692802284226</v>
       </c>
       <c r="G80">
-        <v>0.008502709998307803</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.07530024913480209</v>
+      </c>
+      <c r="H80">
+        <v>-0.003157073967189221</v>
+      </c>
+      <c r="I80">
+        <v>0.06379413470166116</v>
+      </c>
+      <c r="J80">
+        <v>-0.02675530333791126</v>
+      </c>
+      <c r="K80">
+        <v>0.04904512813005099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0001476162455163152</v>
+        <v>0.0163654900621707</v>
       </c>
       <c r="C81">
-        <v>-0.07683463749464586</v>
+        <v>-0.09726060608660102</v>
       </c>
       <c r="D81">
-        <v>-0.07395524516340939</v>
+        <v>0.05805723734690633</v>
       </c>
       <c r="E81">
-        <v>-0.0784716549948629</v>
+        <v>0.02066434056808275</v>
       </c>
       <c r="F81">
-        <v>-0.0474179371114211</v>
+        <v>0.03503523012094367</v>
       </c>
       <c r="G81">
-        <v>-0.08498737388834865</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1006644184816846</v>
+      </c>
+      <c r="H81">
+        <v>0.0458970500613012</v>
+      </c>
+      <c r="I81">
+        <v>-0.03979094042656248</v>
+      </c>
+      <c r="J81">
+        <v>-0.05159695824534017</v>
+      </c>
+      <c r="K81">
+        <v>0.005864366330936878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01332021312652983</v>
+        <v>0.04379902292609607</v>
       </c>
       <c r="C82">
-        <v>-0.0770660424254736</v>
+        <v>-0.1035480798511732</v>
       </c>
       <c r="D82">
-        <v>-0.06972221444334113</v>
+        <v>0.06545224486496956</v>
       </c>
       <c r="E82">
-        <v>-0.09162814336394287</v>
+        <v>0.02908057216631007</v>
       </c>
       <c r="F82">
-        <v>-0.04571614378818208</v>
+        <v>0.06666264382613397</v>
       </c>
       <c r="G82">
-        <v>-0.04619456263403474</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.08335162985984344</v>
+      </c>
+      <c r="H82">
+        <v>0.01125757080355366</v>
+      </c>
+      <c r="I82">
+        <v>-0.01566100149085458</v>
+      </c>
+      <c r="J82">
+        <v>0.004378271855908295</v>
+      </c>
+      <c r="K82">
+        <v>-0.01949535198846947</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.001886202059402624</v>
+        <v>-0.0001855909029425369</v>
       </c>
       <c r="C83">
-        <v>-0.02335255692770022</v>
+        <v>0.02241216228545101</v>
       </c>
       <c r="D83">
-        <v>0.1248097845043575</v>
+        <v>-0.05849443564125669</v>
       </c>
       <c r="E83">
-        <v>0.597425925474388</v>
+        <v>0.9285878354538566</v>
       </c>
       <c r="F83">
-        <v>-0.6838373233338194</v>
+        <v>-0.2567116100042797</v>
       </c>
       <c r="G83">
-        <v>-0.1555423782355616</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03162419615638906</v>
+      </c>
+      <c r="H83">
+        <v>-0.0482734702598062</v>
+      </c>
+      <c r="I83">
+        <v>0.06093755590890655</v>
+      </c>
+      <c r="J83">
+        <v>0.07717102178270437</v>
+      </c>
+      <c r="K83">
+        <v>-0.04171956075846719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01153087154150001</v>
+        <v>0.001640882516314083</v>
       </c>
       <c r="C84">
-        <v>-0.09124923645769281</v>
+        <v>-0.05061611439222694</v>
       </c>
       <c r="D84">
-        <v>-0.03751494565597263</v>
+        <v>0.06695302132945694</v>
       </c>
       <c r="E84">
-        <v>0.06009206450268144</v>
+        <v>-0.0417824115740739</v>
       </c>
       <c r="F84">
-        <v>0.1522023698843279</v>
+        <v>-0.08121195354512586</v>
       </c>
       <c r="G84">
-        <v>-0.001529293322966238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.02367682380966184</v>
+      </c>
+      <c r="H84">
+        <v>0.08526151067756763</v>
+      </c>
+      <c r="I84">
+        <v>0.005101854185470033</v>
+      </c>
+      <c r="J84">
+        <v>0.1896186186104082</v>
+      </c>
+      <c r="K84">
+        <v>0.01630419394354368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.003821688668212339</v>
+        <v>0.02855627105681053</v>
       </c>
       <c r="C85">
-        <v>-0.1140655365970848</v>
+        <v>-0.1164724864080248</v>
       </c>
       <c r="D85">
-        <v>-0.07773846692315925</v>
+        <v>0.08342268229816933</v>
       </c>
       <c r="E85">
-        <v>-0.1017241255370268</v>
+        <v>0.03794709260820294</v>
       </c>
       <c r="F85">
-        <v>-0.06277078645828113</v>
+        <v>0.1178583884080817</v>
       </c>
       <c r="G85">
-        <v>-0.2046879900124845</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2272864536448992</v>
+      </c>
+      <c r="H85">
+        <v>-0.03677016822943879</v>
+      </c>
+      <c r="I85">
+        <v>-0.05044151093499787</v>
+      </c>
+      <c r="J85">
+        <v>-0.06448608251832548</v>
+      </c>
+      <c r="K85">
+        <v>0.01865829787636692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01918315999791017</v>
+        <v>0.01554697077973951</v>
       </c>
       <c r="C86">
-        <v>-0.0819416213073402</v>
+        <v>-0.08071886849455982</v>
       </c>
       <c r="D86">
-        <v>0.005475071186568504</v>
+        <v>0.03119137482109385</v>
       </c>
       <c r="E86">
-        <v>0.009004708057878933</v>
+        <v>-0.01437592367521897</v>
       </c>
       <c r="F86">
-        <v>0.02303542012167498</v>
+        <v>-0.07300159580904075</v>
       </c>
       <c r="G86">
-        <v>0.06720228162143085</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04312578010848785</v>
+      </c>
+      <c r="H86">
+        <v>0.08031697931432671</v>
+      </c>
+      <c r="I86">
+        <v>0.1343317795290614</v>
+      </c>
+      <c r="J86">
+        <v>-0.1390096270342559</v>
+      </c>
+      <c r="K86">
+        <v>-0.1652766760802418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02026542177291286</v>
+        <v>0.02672699672479565</v>
       </c>
       <c r="C87">
-        <v>-0.1517886717509681</v>
+        <v>-0.1214106204421797</v>
       </c>
       <c r="D87">
-        <v>-0.04005760648608395</v>
+        <v>0.02239320996472485</v>
       </c>
       <c r="E87">
-        <v>0.09089860702375976</v>
+        <v>-0.004029927901105201</v>
       </c>
       <c r="F87">
-        <v>0.04842028591252546</v>
+        <v>-0.05431903275561831</v>
       </c>
       <c r="G87">
-        <v>0.004081753674024171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.002689121286962253</v>
+      </c>
+      <c r="H87">
+        <v>0.01300753124130724</v>
+      </c>
+      <c r="I87">
+        <v>-0.0466279703728965</v>
+      </c>
+      <c r="J87">
+        <v>0.09067087923495407</v>
+      </c>
+      <c r="K87">
+        <v>-0.04425445148426475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.005564995431383868</v>
+        <v>0.04034838635650544</v>
       </c>
       <c r="C88">
-        <v>-0.03870396991798862</v>
+        <v>-0.06034657538252115</v>
       </c>
       <c r="D88">
-        <v>-0.03866187409974052</v>
+        <v>0.04179828799766108</v>
       </c>
       <c r="E88">
-        <v>-0.05436804661752398</v>
+        <v>-0.003333201965886942</v>
       </c>
       <c r="F88">
-        <v>-0.004238977867065902</v>
+        <v>0.02016910003585296</v>
       </c>
       <c r="G88">
-        <v>0.01256266491122393</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02036353783670521</v>
+      </c>
+      <c r="H88">
+        <v>-0.01809717794456304</v>
+      </c>
+      <c r="I88">
+        <v>-0.01175767833674184</v>
+      </c>
+      <c r="J88">
+        <v>-0.004135198426731056</v>
+      </c>
+      <c r="K88">
+        <v>0.05593896031585774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4008857541905168</v>
+        <v>0.3926166122880639</v>
       </c>
       <c r="C89">
-        <v>0.05879276997132778</v>
+        <v>0.1151089967518468</v>
       </c>
       <c r="D89">
-        <v>-0.07404494684161318</v>
+        <v>-0.03747609077737857</v>
       </c>
       <c r="E89">
-        <v>0.05281017462203986</v>
+        <v>-0.04366892033603435</v>
       </c>
       <c r="F89">
-        <v>0.09474741769398148</v>
+        <v>-0.03632889675081645</v>
       </c>
       <c r="G89">
-        <v>-0.01741030578228022</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03511410241138991</v>
+      </c>
+      <c r="H89">
+        <v>-0.004509566585108146</v>
+      </c>
+      <c r="I89">
+        <v>-0.03099470184477937</v>
+      </c>
+      <c r="J89">
+        <v>0.716134173691986</v>
+      </c>
+      <c r="K89">
+        <v>0.01053849616802985</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3073581246188115</v>
+        <v>0.3158744684589077</v>
       </c>
       <c r="C90">
-        <v>0.01230977148094586</v>
+        <v>0.07625187156931024</v>
       </c>
       <c r="D90">
-        <v>-0.005814759030112185</v>
+        <v>-0.0187389336323756</v>
       </c>
       <c r="E90">
-        <v>0.07020237555318896</v>
+        <v>0.0007171016416134201</v>
       </c>
       <c r="F90">
-        <v>-0.04614534561516722</v>
+        <v>-0.03845618494905066</v>
       </c>
       <c r="G90">
-        <v>0.03028014938318696</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.003035711596191359</v>
+      </c>
+      <c r="H90">
+        <v>0.02156926379807021</v>
+      </c>
+      <c r="I90">
+        <v>0.00110420318266204</v>
+      </c>
+      <c r="J90">
+        <v>-0.07972481309662434</v>
+      </c>
+      <c r="K90">
+        <v>-0.007116672495853205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02122301151440345</v>
+        <v>0.05374772686405564</v>
       </c>
       <c r="C91">
-        <v>-0.08073764753678933</v>
+        <v>-0.07902456173166753</v>
       </c>
       <c r="D91">
-        <v>-0.06279700800602125</v>
+        <v>0.05378182351138805</v>
       </c>
       <c r="E91">
-        <v>-0.05567971032233412</v>
+        <v>0.05030127834140318</v>
       </c>
       <c r="F91">
-        <v>-0.05398255810474702</v>
+        <v>0.0393755286690939</v>
       </c>
       <c r="G91">
-        <v>-0.07574848300164891</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08728549157791646</v>
+      </c>
+      <c r="H91">
+        <v>-0.04160520342342167</v>
+      </c>
+      <c r="I91">
+        <v>-0.02104332791073063</v>
+      </c>
+      <c r="J91">
+        <v>-0.01485432252750217</v>
+      </c>
+      <c r="K91">
+        <v>0.06843754435925428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3852791210976128</v>
+        <v>0.3511910282549921</v>
       </c>
       <c r="C92">
-        <v>0.05432878096302079</v>
+        <v>0.1212602508320403</v>
       </c>
       <c r="D92">
-        <v>0.01535083991058225</v>
+        <v>-0.05480278702501932</v>
       </c>
       <c r="E92">
-        <v>-0.01752526373741064</v>
+        <v>-0.04987525026068851</v>
       </c>
       <c r="F92">
-        <v>0.1210445879401151</v>
+        <v>-0.0450700632293605</v>
       </c>
       <c r="G92">
-        <v>-0.01417794136230282</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01402140111256212</v>
+      </c>
+      <c r="H92">
+        <v>0.05083821469132482</v>
+      </c>
+      <c r="I92">
+        <v>-0.04482375006592834</v>
+      </c>
+      <c r="J92">
+        <v>-0.1473843506446215</v>
+      </c>
+      <c r="K92">
+        <v>0.01571028546026105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3078427463818577</v>
+        <v>0.3095513826649527</v>
       </c>
       <c r="C93">
-        <v>0.06613792661441062</v>
+        <v>0.1161979963563387</v>
       </c>
       <c r="D93">
-        <v>-0.01326101631728104</v>
+        <v>-0.008160830878290018</v>
       </c>
       <c r="E93">
-        <v>0.06413323557223213</v>
+        <v>-0.01557482998927992</v>
       </c>
       <c r="F93">
-        <v>0.03763824094594592</v>
+        <v>-0.04393111600400336</v>
       </c>
       <c r="G93">
-        <v>-0.004337102943773249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03364619347860948</v>
+      </c>
+      <c r="H93">
+        <v>0.04598518806237969</v>
+      </c>
+      <c r="I93">
+        <v>0.01723403733785533</v>
+      </c>
+      <c r="J93">
+        <v>-0.1055029966280582</v>
+      </c>
+      <c r="K93">
+        <v>-0.02302786905662321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02956506602682598</v>
+        <v>0.07939445177233768</v>
       </c>
       <c r="C94">
-        <v>-0.193855930866406</v>
+        <v>-0.1630330533161015</v>
       </c>
       <c r="D94">
-        <v>-0.1395258971847728</v>
+        <v>0.1132392880286195</v>
       </c>
       <c r="E94">
-        <v>-0.1702501803690619</v>
+        <v>0.05471503272718372</v>
       </c>
       <c r="F94">
-        <v>-0.02001368802335499</v>
+        <v>0.1347078179282795</v>
       </c>
       <c r="G94">
-        <v>-0.6006153056188031</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5676020010735037</v>
+      </c>
+      <c r="H94">
+        <v>-0.1554796901299045</v>
+      </c>
+      <c r="I94">
+        <v>0.08658961829202176</v>
+      </c>
+      <c r="J94">
+        <v>0.04903718171402986</v>
+      </c>
+      <c r="K94">
+        <v>0.3018515417707483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01836369732318434</v>
+        <v>0.04174073276025498</v>
       </c>
       <c r="C95">
-        <v>-0.1118946323844947</v>
+        <v>-0.1276894049205571</v>
       </c>
       <c r="D95">
-        <v>-0.0508997940737434</v>
+        <v>0.06592314060579615</v>
       </c>
       <c r="E95">
-        <v>-0.05620496760522446</v>
+        <v>-0.01021097370542868</v>
       </c>
       <c r="F95">
-        <v>-0.08927475880929608</v>
+        <v>0.07620471718612568</v>
       </c>
       <c r="G95">
-        <v>0.05635235927054046</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03707920906015788</v>
+      </c>
+      <c r="H95">
+        <v>0.02987620090967499</v>
+      </c>
+      <c r="I95">
+        <v>-0.0624689122451892</v>
+      </c>
+      <c r="J95">
+        <v>0.1903630334425589</v>
+      </c>
+      <c r="K95">
+        <v>0.2516954654449679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0001587443108954798</v>
+        <v>0.01597218812154332</v>
       </c>
       <c r="C97">
-        <v>8.202004137141085e-05</v>
+        <v>-0.01649839245814435</v>
       </c>
       <c r="D97">
-        <v>0.0003934672778034032</v>
+        <v>-0.007862752254094319</v>
       </c>
       <c r="E97">
-        <v>-0.004849357848189631</v>
+        <v>-0.02486522030602871</v>
       </c>
       <c r="F97">
-        <v>0.001844775580978906</v>
+        <v>0.01006732041152384</v>
       </c>
       <c r="G97">
-        <v>0.003746628049598789</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02390963826797558</v>
+      </c>
+      <c r="H97">
+        <v>0.08410767102163959</v>
+      </c>
+      <c r="I97">
+        <v>0.08731454651795958</v>
+      </c>
+      <c r="J97">
+        <v>0.02484014592468393</v>
+      </c>
+      <c r="K97">
+        <v>0.05065741364301379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07421298391332319</v>
+        <v>0.1342466698811814</v>
       </c>
       <c r="C98">
-        <v>-0.1370763382210616</v>
+        <v>-0.1617134705202791</v>
       </c>
       <c r="D98">
-        <v>-0.137624172684388</v>
+        <v>0.09217654881130259</v>
       </c>
       <c r="E98">
-        <v>-0.1141773367159019</v>
+        <v>0.07083400447942416</v>
       </c>
       <c r="F98">
-        <v>-0.1531374921710223</v>
+        <v>0.22829931868917</v>
       </c>
       <c r="G98">
-        <v>0.2012187428746836</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2770514377744569</v>
+      </c>
+      <c r="H98">
+        <v>-0.3142199153115675</v>
+      </c>
+      <c r="I98">
+        <v>0.177452092776736</v>
+      </c>
+      <c r="J98">
+        <v>-0.1207146406414367</v>
+      </c>
+      <c r="K98">
+        <v>-0.03974638976058325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02172345926478124</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.05109391691081198</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01698731586032653</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.00432080289530629</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.1304235785766842</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.02042455449087495</v>
+      </c>
+      <c r="H99">
+        <v>0.5005646991259909</v>
+      </c>
+      <c r="I99">
+        <v>0.7963380074794176</v>
+      </c>
+      <c r="J99">
+        <v>0.07452068787991965</v>
+      </c>
+      <c r="K99">
+        <v>0.07127927790349968</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.005957515742812315</v>
+        <v>0.01565575308035763</v>
       </c>
       <c r="C101">
-        <v>-0.07805474222438924</v>
+        <v>-0.08203778703200394</v>
       </c>
       <c r="D101">
-        <v>-0.04876461327954327</v>
+        <v>0.04910488236509316</v>
       </c>
       <c r="E101">
-        <v>0.006308725506997447</v>
+        <v>0.04648001623729261</v>
       </c>
       <c r="F101">
-        <v>-0.03529531709137153</v>
+        <v>-0.01240352768658206</v>
       </c>
       <c r="G101">
-        <v>0.1131739977149322</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1505088116490349</v>
+      </c>
+      <c r="H101">
+        <v>0.2249245593246601</v>
+      </c>
+      <c r="I101">
+        <v>-0.1563892710962911</v>
+      </c>
+      <c r="J101">
+        <v>-0.002650987347832871</v>
+      </c>
+      <c r="K101">
+        <v>0.2157819107648652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.002858815987418032</v>
+        <v>0.00152453096159673</v>
       </c>
       <c r="C102">
-        <v>-0.01834871181616279</v>
+        <v>-0.00752249450372907</v>
       </c>
       <c r="D102">
-        <v>0.0005731259112363961</v>
+        <v>-0.001876268677122499</v>
       </c>
       <c r="E102">
-        <v>-0.01971288949401618</v>
+        <v>0.003165418513855521</v>
       </c>
       <c r="F102">
-        <v>-0.01993610841791983</v>
+        <v>0.005190306590659235</v>
       </c>
       <c r="G102">
-        <v>-0.007601497961726802</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.002598927879640244</v>
+      </c>
+      <c r="H102">
+        <v>0.001843675871659194</v>
+      </c>
+      <c r="I102">
+        <v>-0.005306975364335272</v>
+      </c>
+      <c r="J102">
+        <v>0.01034352062130289</v>
+      </c>
+      <c r="K102">
+        <v>-0.002673142702544668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
